--- a/simulations/raw_inclusion_exclusion/Bos_2018 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Bos_2018 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.2966379663796638</v>
+        <v>0.8247232472324724</v>
       </c>
       <c r="I3">
-        <v>0.5524239934264585</v>
+        <v>0.01711175020542317</v>
       </c>
       <c r="J3">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
-        <v>2694.7</v>
+        <v>88.8</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>9</v>
       </c>
       <c r="Q3">
-        <v>2657</v>
+        <v>33</v>
       </c>
       <c r="R3">
-        <v>2665</v>
+        <v>61</v>
       </c>
       <c r="S3">
-        <v>2674</v>
+        <v>86</v>
       </c>
       <c r="T3">
-        <v>2685</v>
+        <v>92</v>
       </c>
       <c r="U3">
-        <v>2691</v>
+        <v>115</v>
       </c>
       <c r="V3">
-        <v>2211</v>
+        <v>4835</v>
       </c>
       <c r="W3">
-        <v>2203</v>
+        <v>4807</v>
       </c>
       <c r="X3">
-        <v>2194</v>
+        <v>4782</v>
       </c>
       <c r="Y3">
-        <v>2183</v>
+        <v>4776</v>
       </c>
       <c r="Z3">
-        <v>2177</v>
+        <v>4753</v>
       </c>
       <c r="AA3">
         <v>9</v>
@@ -800,19 +800,19 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.454191</v>
+        <v>0.993221</v>
       </c>
       <c r="AG3">
-        <v>0.452547</v>
+        <v>0.987469</v>
       </c>
       <c r="AH3">
-        <v>0.450698</v>
+        <v>0.982334</v>
       </c>
       <c r="AI3">
-        <v>0.448439</v>
+        <v>0.981101</v>
       </c>
       <c r="AJ3">
-        <v>0.447206</v>
+        <v>0.976376</v>
       </c>
     </row>
   </sheetData>
